--- a/medicine/Handicap/Life,_Animated/Life,_Animated.xlsx
+++ b/medicine/Handicap/Life,_Animated/Life,_Animated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Life, Animated est un film américain réalisé par Roger Ross Williams, sorti en 2016. Le film est une adaptation du livre éponyme de Ron Suskind au sujet de son fils autiste[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Life, Animated est un film américain réalisé par Roger Ross Williams, sorti en 2016. Le film est une adaptation du livre éponyme de Ron Suskind au sujet de son fils autiste.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire d'Owen Suskind, un jeune homme autiste qui était non verbal et a commencé à communiquer à l'aide des films Disney, dont Aladin et Le livre de la jungle.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Life, Animated
 Réalisation : Roger Ross Williams
@@ -586,13 +602,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Récompenses
-2016 : Prix du public dans la catégorie Documentaire au Festival International du film de San Francisco[2]
-2016 : Prix de la mise en scène dans la catégorie documentaire américain au Festival du film de Sundance[3]
-Nominations
-2016 : Meilleur film documentaire aux Satellite Awards[4]
-2017 : Oscar du meilleur film documentaire[5]
-2017 : Meilleur film documentaire aux Producers Guild of America Awards[6]</t>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2016 : Prix du public dans la catégorie Documentaire au Festival International du film de San Francisco
+2016 : Prix de la mise en scène dans la catégorie documentaire américain au Festival du film de Sundance</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Life,_Animated</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Life,_Animated</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2016 : Meilleur film documentaire aux Satellite Awards
+2017 : Oscar du meilleur film documentaire
+2017 : Meilleur film documentaire aux Producers Guild of America Awards</t>
         </is>
       </c>
     </row>
